--- a/regions/8/ckhovrebis done/shemosavlebi.xlsx
+++ b/regions/8/ckhovrebis done/shemosavlebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -301,113 +301,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,7 +416,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,2025 +731,2329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="24">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="23">
         <v>2011</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>2012</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>2013</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>2014</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>2015</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>2016</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>2017</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <v>2018</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <v>2019</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>2020</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="M2" s="24">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>54.391426329619094</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>58.227603128828399</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>71.771253569356475</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>78.060378302424979</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>81.65634652256233</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>85.783273433144672</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>100.85165110105552</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>99.975226731686789</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>112.09254941746545</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>111.32684024962516</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="10">
         <v>124.7157600685363</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="M3" s="28">
+        <v>143.95201164547433</v>
+      </c>
+      <c r="N3" s="28">
+        <v>168.34490677632519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>47.296591861493198</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>51.398538630793759</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>64.334542230315435</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>70.480882297991826</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>73.962372344072421</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>77.946389022170678</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>93.933126325529884</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>91.485263261032884</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>104.47260864070304</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>103.68271513314043</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="10">
         <v>117.30888504870286</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="M4" s="28">
+        <v>137.44471427077519</v>
+      </c>
+      <c r="N4" s="28">
+        <v>158.93926245443089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>24.206304939866268</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>26.435646610826463</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>30.411661994334885</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>30.929989939054643</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>34.877457193310939</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>36.819022857941981</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>45.034003719512953</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>42.489706743845609</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>48.092780570958453</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>48.702506263290395</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="11">
         <v>49.490651947443645</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="M5" s="29">
+        <v>64.496308571039819</v>
+      </c>
+      <c r="N5" s="29">
+        <v>71.461127620801278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>3.2110435983137346</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4.4197298294696177</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>5.3518645339166024</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>6.0623717792094682</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>6.1483108459790428</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>5.9354796656574011</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>9.0679553727213555</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>11.914142850952148</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>14.548982817942303</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>10.682039349772134</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="11">
         <v>14.111247376912438</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="M6" s="29">
+        <v>14.983901544647216</v>
+      </c>
+      <c r="N6" s="29">
+        <v>22.553914952407837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>5.4386028165757256</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>5.2899060465918053</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>4.5570995186771004</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>6.9004756337827526</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>9.2221875199179504</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>8.1994094209243205</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>10.261178700492858</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>6.749891714229074</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>6.3685164985312142</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>8.1075376597204833</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="11">
         <v>13.959126491890588</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="M7" s="29">
+        <v>11.753667345497131</v>
+      </c>
+      <c r="N7" s="29">
+        <v>12.783787164315541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.11338399975413797</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.26198757382595433</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>3.3873254274229714E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>0.36917024912323471</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.41962254902959217</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.11236422373453776</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>9.1128822326660155E-2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>0.19746308021545411</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>0.68476301447550458</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="11">
         <v>0.74551236801147469</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="M8" s="29">
+        <v>0.38091330362955733</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0.96534547424316419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>7.4412307340005803</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>8.4995033190447451</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>12.647237502976422</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>13.501238521654228</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>13.668484216330747</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>14.865626681811669</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>15.053648688090005</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>15.878362842720032</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>19.926929872853602</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>23.986204884198507</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="11">
         <v>25.663436413561502</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="M9" s="29">
+        <v>31.178797984670002</v>
+      </c>
+      <c r="N9" s="29">
+        <v>38.76604748592122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>3.434379102641683</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>2.5541534227993092</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3.5039014298858557</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>6.1257042947190223</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>4.4154282131873934</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>3.8841587400804523</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>5.9037521029078164</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>7.0735075139490764</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>6.8733614377339673</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>4.4072502067057284</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="11">
         <v>3.6702007699025474</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="M10" s="29">
+        <v>5.2223342176310217</v>
+      </c>
+      <c r="N10" s="29">
+        <v>4.6410338815816239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>3.5650306700952599</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>4.0862154023076274</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>7.600789676698696</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>6.9272288752974234</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>5.2613341062230399</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>7.8230691067252724</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>8.500223518070344</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>7.2885227730102535</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>8.4645743624680279</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>7.1124137549776982</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="11">
         <v>9.6687096809806725</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="M11" s="29">
+        <v>9.4287913036604394</v>
+      </c>
+      <c r="N11" s="29">
+        <v>7.7680058751602186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>7.0948344681258471</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>6.8290644980346764</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>7.4367113390410591</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>7.5794960044332047</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>7.6939741784899587</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>7.8368844109739531</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>6.918524775525662</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>8.4899634706538922</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>7.619940776762423</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>7.6441251164847053</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="10">
         <v>7.4068750198334481</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="M12" s="28">
+        <v>6.5072973746991165</v>
+      </c>
+      <c r="N12" s="28">
+        <v>9.4056443218943127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>8.169929700623122</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>8.0596969541235186</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>12.035661484127827</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>11.917915401319975</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>13.483510885016802</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>14.952541046717425</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>14.005572716100046</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>8.7232756396840418</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>10.645553002115884</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>5.7866904328816728</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="10">
         <v>8.3779018626861586</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="M13" s="28">
+        <v>7.6172225704701741</v>
+      </c>
+      <c r="N13" s="28">
+        <v>5.4955402203750614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.50541997186024645</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1.0570119494830272</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1.1971308771859064</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>1.9466001055062945</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>1.9695229341390554</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>3.1334148325628131</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>0.65086787172953287</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>0.25577274414062501</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>0.67148545710245766</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>0.15767158508300783</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="11">
         <v>0.1761831843058268</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="M14" s="29">
+        <v>0.46710085042317706</v>
+      </c>
+      <c r="N14" s="29">
+        <v>3.9182490030924479E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>7.6645097287628747</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>7.0026850046404876</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>10.838530606941921</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>9.9713152958136817</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>11.513987950877741</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>11.819126214154611</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>13.354704844370515</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>8.4675028955434168</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>9.9740675450134262</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>5.6290188477986653</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="11">
         <v>8.2017186783803311</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="M15" s="29">
+        <v>7.1501217200469958</v>
+      </c>
+      <c r="N15" s="29">
+        <v>5.456357730344136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>55.466521562116363</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>59.458235584917269</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>76.37020371444315</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>82.398797699311856</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>87.445883229089191</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>92.898930068888191</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>107.93869904162993</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>100.2085389007169</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>115.11816164281893</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>109.46940556602213</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="10">
         <v>125.68678691138902</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="M16" s="28">
+        <v>145.06193684124537</v>
+      </c>
+      <c r="N16" s="28">
+        <v>164.43480267480595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>62.56135603024223</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>66.28730008295193</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>83.806915053484332</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>89.97829370374491</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>95.139857407579001</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>100.73581447986211</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>114.85722381715568</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>108.69850237137079</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>122.7381024195813</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>117.11353068250686</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="12">
         <v>133.09366193122247</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="30" customHeight="1">
-      <c r="A20" s="34" t="s">
+      <c r="M17" s="30">
+        <v>151.56923421594453</v>
+      </c>
+      <c r="N17" s="30">
+        <v>173.84044699670022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1">
+      <c r="A20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="24">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="23">
         <v>2011</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>2012</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>2013</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>2014</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>2015</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>2016</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>2017</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <v>2018</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="24">
         <v>2019</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="24">
         <v>2020</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="24">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="M21" s="24">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>492.98971964425931</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>536.57921664141259</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>640.71280009230043</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>692.73121316653555</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>709.34953759491964</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>758.48873607043663</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>907.67966223048677</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>881.86372437749719</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>987.02155996201122</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>965.71620874300731</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="6">
         <v>1064.6225490384861</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1">
-      <c r="A23" s="26" t="s">
+      <c r="M22" s="31">
+        <v>1247.8649518907255</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1422.716985001357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
+      <c r="A23" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>428.68398818269742</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>473.64799705056356</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>574.32415688836556</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>625.46849196884989</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>642.51190331169767</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>689.19564064849067</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>845.41192379663744</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>806.97526399767423</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>919.92480936275786</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>899.40645352049103</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="6">
         <v>1001.3945643820871</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="M23" s="28">
+        <v>1191.4556788795499</v>
+      </c>
+      <c r="N23" s="28">
+        <v>1343.2279752778834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
+      <c r="A24" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>219.39964239234709</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>243.60986521225351</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>271.48949116544753</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>274.48200892262969</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>302.98083598101914</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>325.55080953670682</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>405.3126432610897</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>374.79415913101747</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>423.47695318509648</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>422.47493595800432</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="8">
         <v>422.47157857923753</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="A25" s="27" t="s">
+      <c r="M24" s="29">
+        <v>559.09384017739978</v>
+      </c>
+      <c r="N24" s="29">
+        <v>603.93249775324716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1">
+      <c r="A25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>29.104062719461098</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>40.728710134546958</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>47.7769014850318</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>53.79930572470569</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>53.410440722816311</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>52.481029102776034</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>81.612929287448253</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>105.09253872965863</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>128.10985022157428</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>92.662456954447677</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="8">
         <v>120.45913158261111</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="M25" s="29">
+        <v>129.8897137067859</v>
+      </c>
+      <c r="N25" s="29">
+        <v>190.60771421912307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1">
+      <c r="A26" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>49.294079209320167</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>48.747561123318654</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>40.681914383581521</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>61.236890739843446</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>80.11323958830188</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>72.498512114343939</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>92.352114370614814</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>59.539596366509095</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>56.077438881452252</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>70.329675336427059</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="8">
         <v>119.16056815899125</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="M26" s="29">
+        <v>101.88804844735552</v>
+      </c>
+      <c r="N26" s="29">
+        <v>108.03838072439889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1">
+      <c r="A27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>1.0448566401254447</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>2.3388025660329923</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>0.30060141953676306</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>3.2069858212063256</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>3.7102684952697849</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>1.0112945056691158</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>0.80383116180173597</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>1.738744622029208</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>5.9400477076680867</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="8">
         <v>6.3639854107927514</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="M27" s="29">
+        <v>3.3019917948689446</v>
+      </c>
+      <c r="N27" s="29">
+        <v>8.1583305898571243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1">
+      <c r="A28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>67.445376981510066</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>78.324653389624771</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>112.90379575345953</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>119.81404066633571</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>118.73826556517149</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>131.44066368101235</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>135.48504766521307</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>140.06021942894273</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>175.46491279368649</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>208.07081913904562</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="8">
         <v>219.07313940658733</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="M28" s="29">
+        <v>270.27707916281889</v>
+      </c>
+      <c r="N28" s="29">
+        <v>327.61973769048785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1">
+      <c r="A29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>31.128317553265443</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>23.537043758359697</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>31.279856275885184</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>54.361337465467301</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>38.356871139741969</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>34.343416094474428</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>53.134635438842189</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>62.394153877785342</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>60.522808730031933</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <v>38.231148490860193</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="8">
         <v>31.330270504621094</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1">
-      <c r="A30" s="27" t="s">
+      <c r="M29" s="29">
+        <v>45.270418681546126</v>
+      </c>
+      <c r="N29" s="29">
+        <v>39.222319568396557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1">
+      <c r="A30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>32.312509326794043</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>37.655306792334017</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>67.853395258927733</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>61.474307030330721</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>45.705264493439913</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>69.170941623907339</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>76.503259267760058</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>64.290765301959155</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>74.534100928887156</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>61.697369934038036</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="8">
         <v>82.535890739246</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="M30" s="29">
+        <v>81.734586908774418</v>
+      </c>
+      <c r="N30" s="29">
+        <v>65.648994732372856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1">
+      <c r="A31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>64.305731461561464</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>62.931219590849381</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>66.388643203935061</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>67.262721197686176</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>66.837634283222457</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>69.293095421945566</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>62.267738433849622</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>74.888460379822973</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>67.096750599253582</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>66.309755222516173</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="6">
         <v>63.227984656399165</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1">
-      <c r="A32" s="26" t="s">
+      <c r="M31" s="28">
+        <v>56.409273011176097</v>
+      </c>
+      <c r="N31" s="28">
+        <v>79.489009723473842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1">
+      <c r="A32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>74.050114593707619</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>74.271748202351148</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>107.44416443843556</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>105.76315634017432</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>117.13140029844439</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>132.20915343601231</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>126.05221008782434</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>76.946465598212811</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>93.73852575762281</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>50.197245637093665</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="6">
         <v>71.517049904083535</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
-      <c r="A33" s="27" t="s">
+      <c r="M32" s="28">
+        <v>66.030790176453564</v>
+      </c>
+      <c r="N32" s="28">
+        <v>46.443926121709382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1">
+      <c r="A33" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>4.5809949663759308</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>9.7405802979619782</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>10.686967807487484</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>17.274713266353601</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>17.109266359695674</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>27.705399442318789</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>5.8579063755353333</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>2.2561259635594793</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>5.9127089784774212</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <v>1.3677384989229986</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="8">
         <v>1.5039686297089501</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1">
-      <c r="A34" s="27" t="s">
+      <c r="M33" s="29">
+        <v>4.0491186860031627</v>
+      </c>
+      <c r="N33" s="29">
+        <v>0.33113917818559313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
+      <c r="A34" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>69.469119627331693</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>64.531167904389136</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>96.757196630948087</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>88.488443073820733</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>100.02213393874865</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>104.50375399369351</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>120.19430371228901</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>74.690339634653327</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <v>87.825816779145384</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <v>48.829507138170662</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="8">
         <v>70.013081274374571</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
-      <c r="A35" s="26" t="s">
+      <c r="M34" s="29">
+        <v>61.981671490450402</v>
+      </c>
+      <c r="N34" s="29">
+        <v>46.112786943523794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1">
+      <c r="A35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>502.73410277640545</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>547.91974525291471</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>681.76832132680011</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>731.23164830902465</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>759.64330361014174</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>821.40479408450369</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>971.4641338844616</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>883.92172959588686</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>1013.6633351203807</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>949.60369915758463</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="6">
         <v>1072.9116142861706</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1">
-      <c r="A36" s="28" t="s">
+      <c r="M35" s="28">
+        <v>1257.4864690560034</v>
+      </c>
+      <c r="N35" s="28">
+        <v>1389.6719013995926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
+      <c r="A36" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>567.03983423796706</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>610.8509648437639</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>748.15696453073633</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>798.4943695067094</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>826.48093789336303</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>890.69788950644897</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>1033.7318723183121</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>958.81018997571005</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>1080.7600857196342</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>1015.913454380101</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="9">
         <v>1136.1395989425698</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:15" ht="30" customHeight="1">
-      <c r="A39" s="34" t="s">
+      <c r="M36" s="30">
+        <v>1313.8957420671791</v>
+      </c>
+      <c r="N36" s="30">
+        <v>1469.1609111230671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" ht="30" customHeight="1">
+      <c r="A39" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="24">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="23">
         <v>2011</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <v>2012</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <v>2013</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>2014</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="23">
         <v>2015</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>2016</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <v>2017</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="23">
         <v>2018</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="24">
         <v>2019</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="24">
         <v>2020</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="24">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="26" t="s">
+      <c r="M40" s="24">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
+      <c r="A41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>128.65549504602788</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>138.12804978040066</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>170.49666607124934</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>184.74910904410672</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <v>192.03362625508882</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <v>200.4076063048297</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="18">
         <v>235.53477954674776</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="18">
         <v>231.28279488647405</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="18">
         <v>258.77743165793578</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="18">
         <v>256.37109396491343</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="18">
         <v>285.16432197139949</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
-      <c r="A42" s="26" t="s">
+      <c r="M41" s="28">
+        <v>331.30726464290331</v>
+      </c>
+      <c r="N41" s="28">
+        <v>383.12581313003187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1">
+      <c r="A42" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>111.87363249227288</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>121.92808086100209</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <v>152.83033830374728</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>166.81036516052896</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>173.93948140622285</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <v>182.09901090114693</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="18">
         <v>219.37685659753106</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="18">
         <v>211.64210444576361</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="18">
         <v>241.18599749175993</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="18">
         <v>238.76767762682647</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="18">
         <v>268.22839910329549</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1">
-      <c r="A43" s="27" t="s">
+      <c r="M42" s="28">
+        <v>316.33064244231127</v>
+      </c>
+      <c r="N42" s="28">
+        <v>361.7200860555231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1">
+      <c r="A43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>57.2567103940371</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>62.71088134880592</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <v>72.244620538906801</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="16">
         <v>73.20343826473632</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <v>82.022339531655604</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="16">
         <v>86.016911480926993</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>105.17501718989594</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="19">
         <v>98.295732361751263</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="19">
         <v>111.02723867124539</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>112.15547644715308</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="19">
         <v>113.16106479854386</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="A44" s="27" t="s">
+      <c r="M43" s="29">
+        <v>148.43902025392526</v>
+      </c>
+      <c r="N43" s="29">
+        <v>162.63398252544459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
+      <c r="A44" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>7.5952853534651066</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>10.484523303323972</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>12.713656442073527</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>14.348095785083986</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <v>14.459163033587549</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>13.866517614211133</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>21.177827495491719</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="19">
         <v>27.562190627886419</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="19">
         <v>33.587855985332055</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>24.599333886928989</v>
       </c>
-      <c r="L44" s="30">
+      <c r="L44" s="19">
         <v>32.265563615990168</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1">
-      <c r="A45" s="27" t="s">
+      <c r="M44" s="29">
+        <v>34.48562738158661</v>
+      </c>
+      <c r="N44" s="29">
+        <v>51.32906703787512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
+      <c r="A45" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>12.864272642621314</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>12.548763240702838</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>10.825647264729909</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="16">
         <v>16.33167495528685</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="16">
         <v>21.688089008059336</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="16">
         <v>19.155529386988967</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="19">
         <v>23.964550274825136</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="19">
         <v>15.615206605509586</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="19">
         <v>14.702389690713144</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="19">
         <v>18.670594571117118</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="19">
         <v>31.917737094216928</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1">
-      <c r="A46" s="27" t="s">
+      <c r="M45" s="29">
+        <v>27.051205003995477</v>
+      </c>
+      <c r="N45" s="29">
+        <v>29.093834473514619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
+      <c r="A46" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>0</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>0.26897055555746407</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="16">
         <v>0.62236627713706272</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="16">
         <v>8.0169398146434687E-2</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>0.8681885078588587</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="16">
         <v>0.98032573527392386</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <v>0.26242190759709638</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="19">
         <v>0.21081751361252729</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="19">
         <v>0.4558642747531112</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="19">
         <v>1.5769193011690461</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="19">
         <v>1.7046244101664134</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1">
-      <c r="A47" s="27" t="s">
+      <c r="M46" s="29">
+        <v>0.87667649273568116</v>
+      </c>
+      <c r="N46" s="29">
+        <v>2.196970355997852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1">
+      <c r="A47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>17.601215640731048</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <v>20.162599084907853</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>30.04422692972738</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="16">
         <v>31.954005887646375</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>32.144575421913871</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="16">
         <v>34.729202329227</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <v>35.157161894857261</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="19">
         <v>36.733021334793101</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="19">
         <v>46.003412003058443</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>55.237080046823877</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="19">
         <v>58.679804703973986</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1">
-      <c r="A48" s="27" t="s">
+      <c r="M47" s="29">
+        <v>71.758373898899535</v>
+      </c>
+      <c r="N47" s="29">
+        <v>88.22526175154654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1">
+      <c r="A48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>8.1235550056808563</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>6.0589859821403653</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <v>8.3237157263878387</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="16">
         <v>14.497987779824021</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <v>10.383892096043237</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <v>9.0742043810459787</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="19">
         <v>13.787964152056283</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="19">
         <v>16.363859737645374</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="19">
         <v>15.867877293870823</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <v>10.149318478245794</v>
       </c>
-      <c r="L48" s="30">
+      <c r="L48" s="19">
         <v>8.3919651652125911</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1">
-      <c r="A49" s="27" t="s">
+      <c r="M48" s="29">
+        <v>12.019264231996344</v>
+      </c>
+      <c r="N48" s="29">
+        <v>10.562243394791238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1">
+      <c r="A49" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>8.432593455737571</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>9.69335734556355</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="16">
         <v>18.056105124784938</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="16">
         <v>16.394993089804828</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="16">
         <v>12.373233807104242</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="16">
         <v>18.276319973472958</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>19.85191368280757</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="19">
         <v>16.861276264565312</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="19">
         <v>19.541359572786973</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>16.378954895388482</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="19">
         <v>22.107639315191467</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1">
-      <c r="A50" s="26" t="s">
+      <c r="M49" s="29">
+        <v>21.700475179172287</v>
+      </c>
+      <c r="N49" s="29">
+        <v>17.678726516353169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1">
+      <c r="A50" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>16.781862553754898</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="15">
         <v>16.199968919398668</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="15">
         <v>17.666327767502107</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <v>17.938743883577875</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>18.09414484886608</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <v>18.308595403682656</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="18">
         <v>16.157922949216786</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="18">
         <v>19.640690440710465</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="18">
         <v>17.591434166175844</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="18">
         <v>17.603416338087015</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="18">
         <v>16.935922868104043</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1">
-      <c r="A51" s="26" t="s">
+      <c r="M50" s="28">
+        <v>14.976622200592155</v>
+      </c>
+      <c r="N50" s="28">
+        <v>21.405727074508686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1">
+      <c r="A51" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>19.324853585472706</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>19.119286425563661</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <v>28.591393558744812</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>28.206681801188534</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>31.709568210773391</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>34.932252400962042</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="18">
         <v>32.70942464597929</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="18">
         <v>20.180435058435997</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="18">
         <v>24.576377991066899</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="18">
         <v>13.325988174888202</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="18">
         <v>19.156189265117163</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1">
-      <c r="A52" s="27" t="s">
+      <c r="M51" s="28">
+        <v>17.53112822218764</v>
+      </c>
+      <c r="N51" s="28">
+        <v>12.506961783628427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1">
+      <c r="A52" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>1.1955019581904183</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>2.5074533611428027</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="16">
         <v>2.8438520056488592</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="16">
         <v>4.6071085354486412</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="16">
         <v>4.6317848782370081</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="16">
         <v>7.3203101376559596</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>1.5200744758086757</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="19">
         <v>0.59170493585765038</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="19">
         <v>1.550194753243378</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>0.3630969554536399</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="19">
         <v>0.40284530413576985</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1">
-      <c r="A53" s="27" t="s">
+      <c r="M52" s="29">
+        <v>1.0750381554042148</v>
+      </c>
+      <c r="N52" s="29">
+        <v>8.9173017711210362E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15" customHeight="1">
+      <c r="A53" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>18.129351627282286</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>16.611833064420853</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="16">
         <v>25.747541553095957</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="16">
         <v>23.599573265739895</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <v>27.077783332536367</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="16">
         <v>27.611942263306084</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <v>31.189350170170616</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="19">
         <v>19.588730122578347</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="19">
         <v>23.026183237823517</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <v>12.962891219434564</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="19">
         <v>18.753343960981393</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1">
-      <c r="A54" s="26" t="s">
+      <c r="M53" s="29">
+        <v>16.456090066783425</v>
+      </c>
+      <c r="N53" s="29">
+        <v>12.417788765917217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" customHeight="1">
+      <c r="A54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <v>131.19848607774568</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>141.04736728656573</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="15">
         <v>181.42173186249181</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="15">
         <v>195.0170469617176</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="15">
         <v>205.64904961699617</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <v>217.03126330210918</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="18">
         <v>252.08628124351031</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="18">
         <v>231.8225395041996</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="18">
         <v>265.76237548282688</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="18">
         <v>252.09366580171459</v>
       </c>
-      <c r="L54" s="29">
+      <c r="L54" s="18">
         <v>287.38458836841261</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1">
-      <c r="A55" s="28" t="s">
+      <c r="M54" s="28">
+        <v>333.86177066449892</v>
+      </c>
+      <c r="N54" s="28">
+        <v>374.22704783915157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15" customHeight="1">
+      <c r="A55" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>147.98034863150062</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>157.24733620596436</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="17">
         <v>199.08805962999423</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="17">
         <v>212.95579084529513</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="17">
         <v>223.74319446586193</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="17">
         <v>235.33985870579176</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="20">
         <v>268.24420419272735</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="20">
         <v>251.46322994491004</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="20">
         <v>283.35380964900259</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="20">
         <v>269.69708213980158</v>
       </c>
-      <c r="L55" s="31">
+      <c r="L55" s="20">
         <v>304.32051123651667</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="35" t="s">
+      <c r="M55" s="30">
+        <v>348.83839286509107</v>
+      </c>
+      <c r="N55" s="30">
+        <v>395.63277491366023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-    </row>
-    <row r="57" spans="1:15" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A57" s="36" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+    </row>
+    <row r="57" spans="1:17" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="1:15" ht="15.75">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" ht="15.75">
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.75">
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
